--- a/Spreadsheets/Staff - Terminations from the Year 2000 to Date.xlsx
+++ b/Spreadsheets/Staff - Terminations from the Year 2000 to Date.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcardozo\Desktop\Staff N Faculty Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenweek/github.com/forchain/AUSPublication/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E444557-0D2E-F149-941D-EB320E050BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pymterm_rep_29072020_125413_CmP" sheetId="1" r:id="rId1"/>
@@ -7146,7 +7147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7989,25 +7990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G592" sqref="G592"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -18357,7 +18357,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>7</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>7</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>7</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -21002,7 +21002,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>7</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>7</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>7</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>7</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -21830,7 +21830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>7</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>7</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>7</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -22428,7 +22428,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -22451,7 +22451,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>7</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>7</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>7</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>7</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>7</v>
       </c>
@@ -22957,7 +22957,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>7</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>7</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -23118,7 +23118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>7</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>7</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>7</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>7</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>7</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -23900,7 +23900,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -24061,7 +24061,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>7</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -24222,7 +24222,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>7</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -24383,7 +24383,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>7</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -24590,7 +24590,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>7</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="2" t="s">
         <v>7</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>7</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>7</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>7</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>7</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -25004,7 +25004,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>7</v>
       </c>
@@ -25050,7 +25050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -25142,7 +25142,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -25211,7 +25211,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -25372,7 +25372,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>7</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>7</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>7</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -25878,7 +25878,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -26108,7 +26108,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>7</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -26177,7 +26177,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>7</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>7</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>7</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -26453,7 +26453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -26614,7 +26614,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>7</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -26752,7 +26752,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -26775,7 +26775,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>7</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -26890,7 +26890,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>7</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>7</v>
       </c>
@@ -27051,7 +27051,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -27074,7 +27074,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -27212,7 +27212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -27235,7 +27235,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -27281,7 +27281,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>7</v>
       </c>
@@ -27304,7 +27304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -27396,7 +27396,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -27488,7 +27488,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -27580,7 +27580,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>7</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -27672,7 +27672,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>7</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -27741,7 +27741,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>7</v>
       </c>
@@ -27764,7 +27764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -27810,7 +27810,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>7</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>7</v>
       </c>
@@ -27971,7 +27971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -27994,7 +27994,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>7</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -28040,7 +28040,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -28201,7 +28201,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -28247,7 +28247,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>7</v>
       </c>
@@ -28293,7 +28293,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -28362,7 +28362,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -28385,7 +28385,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>7</v>
       </c>
@@ -28523,7 +28523,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -28547,8 +28547,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q893">
-    <sortState ref="A2:Q893">
+  <autoFilter ref="A1:Q893" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q893">
       <sortCondition ref="F1:F893"/>
     </sortState>
   </autoFilter>

--- a/Spreadsheets/Staff - Terminations from the Year 2000 to Date.xlsx
+++ b/Spreadsheets/Staff - Terminations from the Year 2000 to Date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenweek/github.com/forchain/AUSPublication/Spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Outlier/github.com/forchain/AUSPublication/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E444557-0D2E-F149-941D-EB320E050BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D18945-B40C-9040-8DE5-2DB7D838B8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="19200" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pymterm_rep_29072020_125413_CmP" sheetId="1" r:id="rId1"/>
@@ -7994,7 +7994,7 @@
   <dimension ref="A1:G893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
